--- a/TestData/Custom_Quota_Status.xlsx
+++ b/TestData/Custom_Quota_Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neogis\D Drive\FREEDOM\Python\CloudAutomation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA2F190-72D8-4281-B190-EEF3026FC171}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D349DF-C220-4654-BD8C-4AF3418A8034}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{458AF82A-ED03-4F93-994B-60962EF35F93}"/>
   </bookViews>
@@ -133,7 +133,7 @@
     <t>individualQuotaValuesId-row-3-colorQuota</t>
   </si>
   <si>
-    <t>Vary_Total4000_Color4000</t>
+    <t>Vary_Total5000_Color5000</t>
   </si>
 </sst>
 </file>
@@ -522,7 +522,7 @@
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -600,22 +600,22 @@
         <v>6</v>
       </c>
       <c r="G2" s="1">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="H2" s="1">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="J2" s="1">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>32</v>
       </c>
       <c r="L2" s="1">
-        <v>4000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="29" spans="1:4">

--- a/TestData/Custom_Quota_Status.xlsx
+++ b/TestData/Custom_Quota_Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neogis\D Drive\FREEDOM\Python\CloudAutomation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D349DF-C220-4654-BD8C-4AF3418A8034}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B4D096-8944-4940-88D5-297120BA3286}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{458AF82A-ED03-4F93-994B-60962EF35F93}"/>
   </bookViews>
@@ -133,7 +133,7 @@
     <t>individualQuotaValuesId-row-3-colorQuota</t>
   </si>
   <si>
-    <t>Vary_Total5000_Color5000</t>
+    <t>Vary_Total6000_Color5000</t>
   </si>
 </sst>
 </file>
@@ -521,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B209AA-B2EF-4EBA-BC33-9B6FB480ED25}">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/TestData/Custom_Quota_Status.xlsx
+++ b/TestData/Custom_Quota_Status.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neogis\D Drive\FREEDOM\Python\CloudAutomation\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neogis\D Drive\FREEDOM\Python\STL_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B4D096-8944-4940-88D5-297120BA3286}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E99F6DE-FE73-4748-96AF-E4F1F98BCC05}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{458AF82A-ED03-4F93-994B-60962EF35F93}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="33">
   <si>
     <t>${quota_name}</t>
   </si>
@@ -131,9 +131,6 @@
   </si>
   <si>
     <t>individualQuotaValuesId-row-3-colorQuota</t>
-  </si>
-  <si>
-    <t>Vary_Total6000_Color5000</t>
   </si>
 </sst>
 </file>
@@ -522,7 +519,7 @@
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -582,7 +579,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>15</v>
@@ -590,8 +587,8 @@
       <c r="C2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>12</v>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>11</v>
@@ -599,23 +596,362 @@
       <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1">
-        <v>5000</v>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="H2" s="1">
-        <v>5000</v>
+        <v>50</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="1">
-        <v>5000</v>
+      <c r="J2" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>32</v>
       </c>
       <c r="L2" s="1">
-        <v>5000</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="16.5">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="4">
+        <v>99999</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="4">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="1">
+        <v>99999</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="1">
+        <v>99999</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="1">
+        <v>99999</v>
+      </c>
+      <c r="H7" s="1">
+        <v>50</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="1">
+        <v>99999</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="1">
+        <v>50</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="1">
+        <v>50</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -686,10 +1022,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D03B8D5-BAB8-450E-A664-CABADEFF022A}">
-  <dimension ref="A4:L53"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection sqref="A1:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -702,9 +1038,123 @@
     <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1">
+        <v>50</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="16.5">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="4">
+        <v>99999</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="4">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="1" customFormat="1">
+      <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1">
+        <v>99999</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="1">
+        <v>99999</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+    </row>
     <row r="4" spans="1:12" s="1" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>15</v>
@@ -712,8 +1162,8 @@
       <c r="C4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>4</v>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>11</v>
@@ -721,28 +1171,28 @@
       <c r="F4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>8</v>
+      <c r="G4" s="1">
+        <v>1</v>
       </c>
       <c r="H4" s="1">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>8</v>
+      <c r="J4" s="1">
+        <v>1</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>32</v>
       </c>
       <c r="L4" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" ht="16.5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="1" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>15</v>
@@ -762,25 +1212,101 @@
       <c r="G5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="1" customFormat="1">
+      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="1">
         <v>99999</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" s="4">
+      <c r="H6" s="1">
+        <v>50</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="1">
         <v>99999</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="1" customFormat="1">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>15</v>
@@ -798,7 +1324,7 @@
         <v>6</v>
       </c>
       <c r="G8" s="1">
-        <v>99999</v>
+        <v>1</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
@@ -807,18 +1333,53 @@
         <v>31</v>
       </c>
       <c r="J8" s="1">
-        <v>99999</v>
+        <v>1</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>32</v>
       </c>
       <c r="L8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="1" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>15</v>
@@ -829,260 +1390,35 @@
       <c r="D10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>11</v>
+      <c r="E10" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G10" s="1">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="H10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>31</v>
       </c>
       <c r="J10" s="1">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>32</v>
       </c>
       <c r="L10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="1" customFormat="1">
-      <c r="A12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="1">
-        <v>1</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="1" customFormat="1">
-      <c r="A16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="1">
-        <v>99999</v>
-      </c>
-      <c r="H16" s="1">
-        <v>50</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J16" s="1">
-        <v>99999</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L16" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="1" customFormat="1">
-      <c r="A18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="1" customFormat="1">
-      <c r="A19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19" s="1">
-        <v>1</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J19" s="1">
-        <v>1</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="1" customFormat="1">
-      <c r="A21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J21" s="1">
-        <v>0</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" s="1" customFormat="1">
-      <c r="A22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22" s="1">
-        <v>50</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J22" s="1">
-        <v>50</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TestData/Custom_Quota_Status.xlsx
+++ b/TestData/Custom_Quota_Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neogis\D Drive\FREEDOM\Python\STL_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E99F6DE-FE73-4748-96AF-E4F1F98BCC05}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E20B71-EEF5-4FFD-A5AF-5A8DB6DB91D4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{458AF82A-ED03-4F93-994B-60962EF35F93}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="34">
   <si>
     <t>${quota_name}</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>individualQuotaValuesId-row-3-colorQuota</t>
+  </si>
+  <si>
+    <t>individualQuotaValuesId-row-checkbox-4</t>
   </si>
 </sst>
 </file>
@@ -519,7 +522,7 @@
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="C3" sqref="C3:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -585,7 +588,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
@@ -623,7 +626,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>4</v>
@@ -661,7 +664,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>12</v>
@@ -699,7 +702,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>12</v>
@@ -737,7 +740,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>4</v>
@@ -775,7 +778,7 @@
         <v>15</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>12</v>
@@ -813,7 +816,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>4</v>
@@ -851,7 +854,7 @@
         <v>15</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>12</v>
@@ -889,7 +892,7 @@
         <v>15</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>13</v>
@@ -924,7 +927,7 @@
         <v>15</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>12</v>

--- a/TestData/Custom_Quota_Status.xlsx
+++ b/TestData/Custom_Quota_Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neogis\D Drive\FREEDOM\Python\STL_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E20B71-EEF5-4FFD-A5AF-5A8DB6DB91D4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77EB7186-E830-4C74-BAAA-1065A0ED05B6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{458AF82A-ED03-4F93-994B-60962EF35F93}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="36">
   <si>
     <t>${quota_name}</t>
   </si>
@@ -134,6 +134,12 @@
   </si>
   <si>
     <t>individualQuotaValuesId-row-checkbox-4</t>
+  </si>
+  <si>
+    <t>individualQuotaValuesId-row-4-totalQuota</t>
+  </si>
+  <si>
+    <t>individualQuotaValuesId-row-4-colorQuota</t>
   </si>
 </sst>
 </file>
@@ -521,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B209AA-B2EF-4EBA-BC33-9B6FB480ED25}">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -606,13 +612,13 @@
         <v>50</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L2" s="1">
         <v>50</v>
@@ -644,13 +650,13 @@
         <v>99999</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L3" s="4">
         <v>99999</v>
@@ -682,13 +688,13 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J4" s="1">
         <v>99999</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L4" s="1">
         <v>0</v>
@@ -720,13 +726,13 @@
         <v>1</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J5" s="1">
         <v>1</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L5" s="1">
         <v>1</v>
@@ -758,13 +764,13 @@
         <v>1</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L6" s="1">
         <v>1</v>
@@ -796,13 +802,13 @@
         <v>50</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J7" s="1">
         <v>99999</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L7" s="1">
         <v>50</v>
@@ -834,13 +840,13 @@
         <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L8" s="1">
         <v>0</v>
@@ -872,13 +878,13 @@
         <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J9" s="1">
         <v>1</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L9" s="1">
         <v>0</v>
@@ -907,13 +913,13 @@
         <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L10" s="1">
         <v>0</v>
@@ -945,13 +951,13 @@
         <v>0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J11" s="1">
         <v>50</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L11" s="1">
         <v>0</v>
